--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/MAINE_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/MAINE_2014.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,535 +360,425 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Mexicali</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA Total</t>
+          <t>Baja California Total</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Amatenango De La Frontera</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Las Margaritas</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHIAPAS Total</t>
+          <t>Chiapas Total</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Gustavo A. Madero</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL Total</t>
+          <t>Distrito Federal Total</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Amanalco</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESTADO DE MEXICO Total</t>
+          <t>Estado De Mexico Total</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Pénjamo</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GUANAJUATO Total</t>
+          <t>Guanajuato Total</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.14285714285714299</t>
-        </is>
+          <t>Atlixtac</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Iguala De La Independencia</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Teloloapan</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUERRERO Total</t>
+          <t>Guerrero Total</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.238095238095238</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.238095238095238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICHOACÁN</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Tangancícuaro</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MICHOACAN Total</t>
+          <t>Michoacan Total</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Oaxaca De Juárez</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Villa De Zaachila</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OAXACA Total</t>
+          <t>Oaxaca Total</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.5238095238094997E-2</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.09523809523809501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.19047619047618999</t>
-        </is>
+          <t>Huaquechula</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.19047619047619</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.7619047619047998E-2</t>
-        </is>
+          <t>Teziutlán</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.047619047619048</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PUEBLA Total</t>
+          <t>Puebla Total</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.238095238095238</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0.238095238095238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Julio del 2015</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/MAINE_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/MAINE_2014.xlsx
@@ -434,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -591,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -604,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -689,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -738,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Teziutlán</t>
